--- a/BOM/TMNT_Shredder_Team_C4_BOM.xlsx
+++ b/BOM/TMNT_Shredder_Team_C4_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\TMNT_Shredder\Shredder_Single_Cutter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\TMNT_Shredder\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3762924-81F7-4F0B-A11C-7BA6ABCE18A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEBB76-B7F2-4DC3-A735-39562EF61FD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Name/Part Number</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Ready to Order</t>
   </si>
   <si>
-    <t>1" Wide Low-Carbon Steel Hex Bar/6512K45</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/6512k45</t>
   </si>
   <si>
@@ -94,6 +91,30 @@
   </si>
   <si>
     <t>Group C5</t>
+  </si>
+  <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <t>1" Wide Low-Carbon Steel Hex Bar 3ft length /6512K45</t>
+  </si>
+  <si>
+    <t>2.26lb</t>
+  </si>
+  <si>
+    <t>10lb</t>
+  </si>
+  <si>
+    <t>1.4lb</t>
+  </si>
+  <si>
+    <t>1lb</t>
+  </si>
+  <si>
+    <t>1.55lb</t>
+  </si>
+  <si>
+    <t>8.75lb</t>
   </si>
 </sst>
 </file>
@@ -538,25 +559,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="6" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="6" width="8.6328125" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" customWidth="1"/>
     <col min="8" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -564,183 +588,204 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>13.39</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">D3*E3</f>
+        <v>13.39</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>13.39</v>
-      </c>
-      <c r="D3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>15.75</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">C3*D3</f>
-        <v>13.39</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>15.75</v>
-      </c>
-      <c r="D4">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>30.39</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>151.94999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>4.76</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9.52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>11.03</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>30.39</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>151.94999999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>4.76</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>9.52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>11.03</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>11.03</v>
-      </c>
-      <c r="D7">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>11.13</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>11.03</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
+      <c r="F8">
+        <f t="shared" si="0"/>
         <v>11.13</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>11.13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E9">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17">
-        <f>SUM(E3:E16)</f>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f>SUM(F3:F16)</f>
         <v>212.76999999999998</v>
       </c>
     </row>
